--- a/xlsx/a69_f15_aUPPachuca.xlsx
+++ b/xlsx/a69_f15_aUPPachuca.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO.2\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7799A-0687-4E2E-BB3E-AFF1C6940458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E27AC0B-97AD-42E1-8673-DDBA2624545B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="14" r:id="rId2"/>
-    <sheet name="Hidden_1" sheetId="2" r:id="rId3"/>
-    <sheet name="Hidden_2" sheetId="3" r:id="rId4"/>
-    <sheet name="Hidden_3" sheetId="4" r:id="rId5"/>
-    <sheet name="Hidden_4" sheetId="5" r:id="rId6"/>
-    <sheet name="Hidden_5" sheetId="6" r:id="rId7"/>
-    <sheet name="Hidden_6" sheetId="7" r:id="rId8"/>
-    <sheet name="Hidden_7" sheetId="8" r:id="rId9"/>
-    <sheet name="Tabla_492578" sheetId="9" r:id="rId10"/>
-    <sheet name="Hidden_1_Tabla_492578" sheetId="10" r:id="rId11"/>
-    <sheet name="Tabla_492580" sheetId="11" r:id="rId12"/>
-    <sheet name="Hidden_1_Tabla_492580" sheetId="12" r:id="rId13"/>
-    <sheet name="Tabla_492622" sheetId="13" r:id="rId14"/>
+    <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
+    <sheet name="Hidden_5" sheetId="6" r:id="rId6"/>
+    <sheet name="Hidden_6" sheetId="7" r:id="rId7"/>
+    <sheet name="Hidden_7" sheetId="8" r:id="rId8"/>
+    <sheet name="Tabla_492578" sheetId="9" r:id="rId9"/>
+    <sheet name="Hidden_1_Tabla_492578" sheetId="10" r:id="rId10"/>
+    <sheet name="Tabla_492580" sheetId="11" r:id="rId11"/>
+    <sheet name="Hidden_1_Tabla_492580" sheetId="12" r:id="rId12"/>
+    <sheet name="Tabla_492622" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_1_Tabla_4925783">Hidden_1_Tabla_492578!$A$1:$A$3</definedName>
@@ -39,12 +38,12 @@
     <definedName name="Hidden_643">Hidden_6!$A$1:$A$2</definedName>
     <definedName name="Hidden_745">Hidden_7!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="207">
   <si>
     <t>52260</t>
   </si>
@@ -283,7 +282,7 @@
     <t>Denominación del subprograma, vertiente o modalidad a la que pertenece el beneficiario, en su caso</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; El programa o subprograma a cargo del sujeto obligado está relacionado con temáticas de violencia de género y/o igualdad de género (catálogo)</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; El programa o subprograma a cargo del sujeto obligado está relacionado con temáticas de violencia de género y/o igualdad de género (catálogo)</t>
   </si>
   <si>
     <t>El programa es desarrollado por más de un área (catálogo)</t>
@@ -320,10 +319,10 @@
     <t>Población beneficiada estimada (número de personas)</t>
   </si>
   <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de hombres</t>
-  </si>
-  <si>
-    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de mujeres</t>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Total de hombres</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/04/2023 -&gt; Total de mujeres</t>
   </si>
   <si>
     <t>Nota metodológica de cálculo</t>
@@ -571,13 +570,13 @@
     <t>Fecha de publicacion  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Área de Becas (UPP)</t>
-  </si>
-  <si>
     <t>Becas Institucionales</t>
   </si>
   <si>
-    <t>Mtra. Nelly A. Pacheco Rodríguez</t>
+    <t>Becas Alimenticias</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica de Pachuca</t>
   </si>
   <si>
     <t>Área de Becas</t>
@@ -586,20 +585,7 @@
     <t>Reglas de Operación para el Programa de Becas Institucionales de la Universidad Politécnica de Pachuca, para el ejercicio Fiscal 2023</t>
   </si>
   <si>
-    <t>https://periodico.hidalgo.gob.mx/?tribe_events=Periodico-Oficial-Alcance-10-del-28-de-febrero-de-2023</t>
-  </si>
-  <si>
-    <t>a)Nacionalidad mexicana o acreditar su residencia legal en el país;
-b) El Secretario Académico deberá presentar por escrito ante el Comité de Becas el listado de las y/o los estudiantes que participaran en eventos regionales, estatales, nacionales e internacionales en los ámbitos académicos, culturales, deportivos o de participación comunitaria, en representación de la Universidad;
-c) El Secretario Académico deberá presentar oficio con lista de estudiantes de no tener ningún tipo de adeudo
-con la Universidad, este requisito se exime para las y los estudiantes de nuevo ingreso; y
-d) Será determinada en función de la disponibilidad presupuestal del proyecto en la Universidad y con estricto cumplimiento de los requisitos fiscales y administrativos aplicables.</t>
-  </si>
-  <si>
-    <t>La asignación de la Beca se otorga según la propuesta de estudiantes de la Secretaría Académica y/o Dirección de Vinculación por su destacada participación en los ámbitos académicos, culturales, deportivos o de participación comunitaria. </t>
-  </si>
-  <si>
-    <t>La asignación de la Beca se otorga de acuerdo a las solicitudes con expediente de Beca Alimenticia recibidas por las y los estudiantes de UPP.</t>
+    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2023/2023-presupuesto-anual-de-egresos.pdf</t>
   </si>
   <si>
     <t>a) Solicitud de Beca
@@ -609,18 +595,32 @@
 e)Copia de recibo de pago de reinscripción o inscripción</t>
   </si>
   <si>
-    <t>Las quejas, dudas, aclaraciones, comentarios y denuncias de las y los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de la Dirección de Planeación de la Universidad Politécnica de Pachuca al teléfono 771 547 7510  ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx</t>
+    <t>La asignación de la Beca se otorga de acuerdo a las solicitudes con expediente de Beca Alimenticia recibidas por las y los estudiantes de UPP.</t>
+  </si>
+  <si>
+    <t>4612,9</t>
+  </si>
+  <si>
+    <t>Las quejas, dudas, aclaraciones, comentarios y denuncias de las y los estudiantes beneficiarios en general se atenderán de acuerdo a las disposiciones establecidas para ello, y se podrán recibir vía escrita, telefónica, por internet o directamente en las oficinas de la Dirección de Planeación de la Universidad Politécnica de Pachuca al teléfono 771 547 7510  ext.2228, y correo electrónico: dirplaneacion@upp.edu.mx</t>
   </si>
   <si>
     <t>Entregar la documentación que sea requerida y en los términos que fue solicitada en las convocatorias o instrumentos jurídicos aplicables y conducirse con veracidad; Acatar las fechas establecidas en cada proceso, así como estar al pendiente de la publicación de resultados; Dar trato digno y respetuoso a todas las autoridades y representantes de la Universidad Politécnica de Pachuca; Asistir a clases y cumplir con el plan de estudios, reglamentos y legislación la Universidad Politécnica de Pachuca; Observar una buena conducta dentro y fuera de la Universidad Politécnica de Pachuca; Acudir a las reuniones informativas sobre asesorías y pagos de las Becas Institucionales; y Participar en las encuestas, cuestionario y demás instrumentos de evaluación que le sean requeridos.</t>
   </si>
   <si>
-    <t xml:space="preserve">I. Presentar documentación apócrifa durante el proceso de selección;
+    <t>I. Presentar documentación apócrifa durante el proceso de selección;
 II. Cuando el beneficiario presente “Carta Renuncia” a la beca;
 III. Fallecimiento del beneficiario;
 IV. Que se detecte que el beneficiario cuente con otra Beca Institucional; y
-V. Cuando el beneficiario cause baja escolar.
-</t>
+V. Cuando el beneficiario cause baja escolar.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_15_a/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf</t>
+  </si>
+  <si>
+    <t>Área de Becas (UPP)</t>
+  </si>
+  <si>
+    <t>De acuerdo a la naturaleza del programa no se requiere la información  del  Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado, Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
   </si>
   <si>
     <t>Beneficio de una comida al día a las y los estudiantes que cumplan con los requisitos de la convocatoria de Beca Alimenticia.</t>
@@ -632,7 +632,13 @@
     <t xml:space="preserve"> Alumnos Becados</t>
   </si>
   <si>
-    <t xml:space="preserve"> Porcentaje de alumnos becados</t>
+    <t>Porcentaje de alumnos becados</t>
+  </si>
+  <si>
+    <t>alumnos o alumnas becados/matrícula *100</t>
+  </si>
+  <si>
+    <t>alumnos y alumnas</t>
   </si>
   <si>
     <t>semestral</t>
@@ -641,50 +647,44 @@
     <t>Carta Descriptiva del Programa Operativo Anual</t>
   </si>
   <si>
-    <t>alumnos y alumnas</t>
-  </si>
-  <si>
-    <t>alumnos o alumnas becados/matrícula *100</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/leygralcontabilidad/mc/02-edospres/02-programa-anual-de-egresos-autorizados/2023/2023-presupuesto-anual-de-egresos.pdf</t>
-  </si>
-  <si>
-    <t>Becas Alimenticias</t>
-  </si>
-  <si>
-    <t>Becas de Representación Institucional</t>
-  </si>
-  <si>
-    <t>De acuerdo a la naturaleza del programa no se requiere la información  del  Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado,Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, el Hipervínculo a los informes periódicos sobre la ejecución del programa, Hipervínculo al resultado de las evaluaciones realizadas a dichos informes y la Fecha de publicación  en el DOF  gaceta o equivalente de las evaluaciones realizadas a los programa, lo que no impide la ejecución de los programas sociales.</t>
-  </si>
-  <si>
-    <t>Beneficio a las y los estudiantes inscritos que representen a la institución en el ámbito competitivo cultural, deportivo y/o académico con el otorgamiento del pago de los gastos que genere el acudir a algún evento representativo.</t>
-  </si>
-  <si>
-    <t>Beneficio a las y los estudiantes inscritos con un monto de apoyo complementario para sus gastos escolares</t>
-  </si>
-  <si>
-    <t>Con el fin de apoyar a las y los estudiantes que representan a la UPP en eventos instituciones.</t>
-  </si>
-  <si>
-    <t>Con el fin de apoyar a las y los estudiantes de escasos recursos</t>
-  </si>
-  <si>
-    <t>Becas de Equidad Social</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_15_a/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo a la naturaleza del programa no se requiere la información  del  Diseño, Nota metodológica de cálculo, Hipervínculo documento de modificaciones a los alcances, Periodo evaluado, Mecanismos de evaluación, Instancias Evaluadoras, Hipervínculo a resultados de informe de evaluación, Seguimiento a las recomendaciones (en su caso), Formas de participación social, Denominación del (los) programas(s) al(los) cual(es) está articulado,Hipervínculo al padrón de beneficiarios o participantes,  Hipervínculo al Padrón de Beneficiarios de programas de desarrollo social federal elaborado y publicado por la Secretaría del Bienestar, lo que no impide la ejecución de los programas sociales. </t>
+    <t>Becas Estatales</t>
+  </si>
+  <si>
+    <t>Becas para la Transformación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://periodico.hidalgo.gob.mx/?tribe_events=Periodico-Oficial-Alcance-8-del-28-de-febrero-de-2023 </t>
+  </si>
+  <si>
+    <t>Reglas de Operación para del Programa de Becas para La transformación de Estudiantes de Instituciones de Educación Superior en el Estado de Hidalgo 2023</t>
+  </si>
+  <si>
+    <t>Dirección de Becas de Educación Media Superior y Superior</t>
+  </si>
+  <si>
+    <t>De acuerdo a la naturaleza del programa y que es una beca estatal, la información faltante en el reporte de formatos de esta Beca, así como la documentación, el proceso de selección, está a cargo de la Dirección de Becas Media Superior y Superior perteneciente a la Dirección General de Vinculación y Fortalecimiento Institucional de la Secretaría de Educación Pública del Estado de Hidalgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección General de Vinculación y Fortalecimiento Institucional de la Secretaría de Educación Pública del Estado de Hidalgo  </t>
+  </si>
+  <si>
+    <t>Secretaria de Educación Pública (SEPH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficio de un apoyo económico a los estudiantes regulares de nivel superior </t>
+  </si>
+  <si>
+    <t>Con el fin de beneficiar con un apoyo económico y así evitar la deserción escolar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -715,20 +715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -752,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -775,62 +762,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -856,44 +854,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -943,9 +941,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1001,180 +999,156 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:BB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -1183,10 +1157,10 @@
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.5703125" customWidth="1"/>
     <col min="11" max="11" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="175.28515625" customWidth="1"/>
     <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
@@ -1202,13 +1176,13 @@
     <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="79" customWidth="1"/>
-    <col min="30" max="30" width="108.42578125" customWidth="1"/>
+    <col min="29" max="29" width="84.28515625" customWidth="1"/>
+    <col min="30" max="30" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="68" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="88.42578125" customWidth="1"/>
+    <col min="34" max="34" width="95.7109375" customWidth="1"/>
+    <col min="35" max="35" width="96.85546875" customWidth="1"/>
     <col min="36" max="36" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -1220,14 +1194,14 @@
     <col min="44" max="44" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="156.28515625" customWidth="1"/>
+    <col min="47" max="47" width="68.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="114" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="20" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="103" customWidth="1"/>
+    <col min="54" max="54" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
@@ -1235,599 +1209,599 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:54" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:54" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BA5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB5" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-    </row>
-    <row r="7" spans="1:54" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+    </row>
+    <row r="7" spans="1:54" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AO7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AP7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AR7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AS7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AT7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AU7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AW7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AX7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AY7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BA7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BB7" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="9" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="C8" s="4">
-        <v>45107</v>
+        <v>45291</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>127</v>
@@ -1836,34 +1810,36 @@
         <v>131</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>176</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>179</v>
+      <c r="M8" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="7">
         <v>44985</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="7">
         <v>45291</v>
       </c>
       <c r="Q8" s="3"/>
@@ -1871,23 +1847,23 @@
         <v>1</v>
       </c>
       <c r="S8" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T8" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U8" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="3">
-        <v>101500</v>
+      <c r="W8" s="8">
+        <v>143000</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>101500</v>
+        <v>143000</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -1896,29 +1872,29 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AC8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AE8" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>2030</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>2030</v>
-      </c>
-      <c r="AH8" s="10" t="s">
+      <c r="AI8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AJ8" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
@@ -1936,96 +1912,96 @@
       <c r="AT8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AU8" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>1</v>
-      </c>
+      <c r="AU8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="AZ8" s="4">
-        <v>45117</v>
+        <v>45301</v>
       </c>
       <c r="BA8" s="4">
-        <v>45117</v>
-      </c>
-      <c r="BB8" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45301</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
       <c r="B9" s="4">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="C9" s="4">
-        <v>45107</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="7">
         <v>44985</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="7">
         <v>45291</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="3">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="11">
         <v>2</v>
       </c>
-      <c r="S9" s="3">
-        <v>19</v>
-      </c>
-      <c r="T9" s="3">
-        <v>17</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2</v>
-      </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="3">
-        <v>4500</v>
+      <c r="S9" s="11">
+        <v>1613</v>
+      </c>
+      <c r="T9" s="11">
+        <v>820</v>
+      </c>
+      <c r="U9" s="11">
+        <v>793</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11">
+        <v>20755000</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3">
-        <v>4500</v>
+      <c r="Y9" s="11">
+        <v>20755000</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -2033,204 +2009,50 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>300</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>300</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5" t="s">
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5" t="s">
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AU9" s="14" t="s">
+      <c r="AU9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AV9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="AZ9" s="4">
-        <v>45117</v>
+        <v>45301</v>
       </c>
       <c r="BA9" s="4">
-        <v>45117</v>
-      </c>
-      <c r="BB9" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45017</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45107</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O10" s="4">
-        <v>44985</v>
-      </c>
-      <c r="P10" s="4">
-        <v>45291</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="3">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3">
-        <v>29</v>
-      </c>
-      <c r="T10" s="3">
-        <v>11</v>
-      </c>
-      <c r="U10" s="3">
-        <v>18</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="3">
-        <v>58000</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>58000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU10" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ10" s="4">
-        <v>45117</v>
-      </c>
-      <c r="BA10" s="4">
-        <v>45117</v>
-      </c>
-      <c r="BB10" s="13" t="s">
-        <v>205</v>
+        <v>45301</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2244,173 +2066,45 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D189" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8:E189" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H189" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I189" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N201" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N8:N189" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_513</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AR8:AR201" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AR8:AR189" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Hidden_643</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT8:AT201" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT8:AT189" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Hidden_745</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="AC8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AC9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AC10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AU8" r:id="rId7" xr:uid="{FA8C3365-C43C-4714-BB9A-4C290E6CFF97}"/>
-    <hyperlink ref="AU9:AU10" r:id="rId8" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/f_15_a/2023_feb_28%20REGLAS%20DE%20OPERACI%C3%93N.pdf" xr:uid="{52E9D849-8D04-4CD3-A9BF-7D5B0391484F}"/>
+    <hyperlink ref="AC8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AU8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AU9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="5">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>Hidden_1_Tabla_4925783</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2434,12 +2128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,120 +2201,62 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="12">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="12">
-        <v>3.8E-3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="12">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>192</v>
+      <c r="G4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2633,13 +2269,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2668,18 +2302,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="106.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2706,39 +2340,26 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBA45F5-FEA2-4B61-9C4E-F6C43DE9951B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2761,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -2799,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2822,7 +2443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2845,7 +2466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2868,7 +2489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2891,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2912,4 +2533,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1613</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>Hidden_1_Tabla_4925783</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>